--- a/Documentation/Time_recording.xlsx
+++ b/Documentation/Time_recording.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SageGoesInAllFields\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC\02\Projekt\git_repo\LWN-ReaderApp\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$B$2:$AF$27</definedName>
     <definedName name="Project_Types">'dynamic Data'!$A$32:$A$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="118">
   <si>
     <t>Nr</t>
   </si>
@@ -368,16 +368,28 @@
     <t>18.04. - 24.04.2016</t>
   </si>
   <si>
-    <t>Besprechugnen</t>
+    <t>Ideen/Design App</t>
   </si>
   <si>
-    <t>Ideen/Design App</t>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Project plan, Requirement specification</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Android Studio, GitHub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
@@ -1631,7 +1643,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -1857,6 +1869,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1892,6 +1921,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2073,11 +2119,11 @@
   </sheetPr>
   <dimension ref="B2:AG55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
@@ -2814,7 +2860,7 @@
       <c r="D16" s="101"/>
       <c r="E16" s="85">
         <f t="shared" ref="E16" si="3">IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16" s="126">
         <f t="shared" ref="F16" si="4">IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
@@ -2822,7 +2868,7 @@
       </c>
       <c r="G16" s="91">
         <f t="shared" ref="G16" si="5">F16-E16</f>
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="H16" s="67"/>
       <c r="I16" s="37" t="s">
@@ -2842,11 +2888,11 @@
       </c>
       <c r="M16" s="55">
         <f>'Std-B'!C46</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N16" s="55">
         <f>'Std-B'!C57</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O16" s="55">
         <f>'Std-B'!C68</f>
@@ -2910,7 +2956,7 @@
       </c>
       <c r="AD16" s="56">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE16" s="74">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
@@ -2918,7 +2964,7 @@
       </c>
       <c r="AF16" s="76">
         <f>AD17-AE16</f>
-        <v>-73</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2950,7 +2996,7 @@
       </c>
       <c r="N17" s="32">
         <f>'Std-B'!C56</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17" s="32">
         <f>'Std-B'!C67</f>
@@ -3014,7 +3060,7 @@
       </c>
       <c r="AD17" s="33">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE17" s="71"/>
       <c r="AF17" s="73"/>
@@ -3044,11 +3090,11 @@
       </c>
       <c r="M18" s="29">
         <f t="shared" si="6"/>
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="N18" s="29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="O18" s="29">
         <f t="shared" si="6"/>
@@ -3112,7 +3158,7 @@
       </c>
       <c r="AD18" s="31">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="AE18" s="75"/>
       <c r="AF18" s="77"/>
@@ -4704,7 +4750,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
@@ -7429,11 +7475,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
@@ -7881,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C39" s="43">
         <v>120</v>
@@ -7890,7 +7936,7 @@
         <v>17</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7968,7 +8014,7 @@
       </c>
       <c r="B46" s="163"/>
       <c r="C46" s="62">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D46" s="162" t="s">
         <v>18</v>
@@ -8013,23 +8059,35 @@
       <c r="A50" s="46">
         <v>1</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
+      <c r="B50" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="43">
+        <v>120</v>
+      </c>
       <c r="D50" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="42"/>
+      <c r="E50" s="42" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="51" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="46">
         <v>2</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
+      <c r="B51" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="43">
+        <v>60</v>
+      </c>
       <c r="D51" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="42"/>
+      <c r="E51" s="42" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="52" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="46">
@@ -8082,7 +8140,7 @@
       <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D56" s="166" t="s">
         <v>18</v>
@@ -8095,7 +8153,7 @@
       </c>
       <c r="B57" s="163"/>
       <c r="C57" s="62">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D57" s="162" t="s">
         <v>18</v>
@@ -10168,7 +10226,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
@@ -12897,7 +12955,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
@@ -15626,7 +15684,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
@@ -18351,11 +18409,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
   </cols>
